--- a/qq_market_analysis/qq_market.xlsx
+++ b/qq_market_analysis/qq_market.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lynxz/Lynxz/工作相关/思维导图/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lynxz/Workspace/PycharmProjects/pythonDemos/qq_market_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="26840" yWindow="500" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="market_2017111721241510925046" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="526">
   <si>
     <t>appName</t>
   </si>
@@ -56,6 +56,9 @@
     <t>localApkFileName</t>
   </si>
   <si>
+    <t>minSdkVersion</t>
+  </si>
+  <si>
     <t>QQ</t>
   </si>
   <si>
@@ -1599,6 +1602,9 @@
   </si>
   <si>
     <t>土豆视频_7220.apk</t>
+  </si>
+  <si>
+    <t>targetSdkVersion</t>
   </si>
 </sst>
 </file>
@@ -1935,10 +1941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1952,9 +1958,11 @@
     <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1982,16 +1990,22 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>6633</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>46189354</v>
@@ -2000,27 +2014,27 @@
         <v>6534975040</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>10910</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>51815515</v>
@@ -2029,27 +2043,27 @@
         <v>5018983232</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>11384</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>27085393</v>
@@ -2058,27 +2072,27 @@
         <v>1709921919</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>5284</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>17441148</v>
@@ -2087,27 +2101,27 @@
         <v>2429014871</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>6259</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>34892365</v>
@@ -2116,27 +2130,27 @@
         <v>1434118109</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>6866</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>23257755</v>
@@ -2145,27 +2159,27 @@
         <v>1042097240</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>5613</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>20702475</v>
@@ -2174,27 +2188,27 @@
         <v>1472639068</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>9959</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>30050433</v>
@@ -2203,27 +2217,27 @@
         <v>1435076867</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>3040</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <v>41352888</v>
@@ -2232,27 +2246,27 @@
         <v>2469524531</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>7193</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>73733276</v>
@@ -2261,27 +2275,27 @@
         <v>374117616</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>5080</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>79184208</v>
@@ -2290,27 +2304,27 @@
         <v>1575259574</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13">
         <v>2608</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>37812496</v>
@@ -2319,27 +2333,27 @@
         <v>857055756</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14">
         <v>9685</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>46964433</v>
@@ -2348,27 +2362,27 @@
         <v>1801554738</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>10555</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15">
         <v>16620504</v>
@@ -2377,27 +2391,27 @@
         <v>278477579</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16">
         <v>7720</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>30339193</v>
@@ -2406,27 +2420,27 @@
         <v>1511914230</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B17">
         <v>10197</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>53445036</v>
@@ -2435,27 +2449,27 @@
         <v>1207364176</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18">
         <v>9926</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>47799553</v>
@@ -2464,27 +2478,27 @@
         <v>1310150176</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19">
         <v>93301</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>10653230</v>
@@ -2493,27 +2507,27 @@
         <v>4478460973</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20">
         <v>1129680</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20">
         <v>14658549</v>
@@ -2522,27 +2536,27 @@
         <v>240393607</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21">
         <v>10936</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>34864915</v>
@@ -2551,27 +2565,27 @@
         <v>1066533831</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22">
         <v>10108868</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22">
         <v>23465153</v>
@@ -2580,27 +2594,27 @@
         <v>985755176</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B23">
         <v>8382</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23">
         <v>59872266</v>
@@ -2609,27 +2623,27 @@
         <v>516754925</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24">
         <v>4859</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>55271313</v>
@@ -2638,27 +2652,27 @@
         <v>1325456299</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25">
         <v>9997</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D25">
         <v>48771298</v>
@@ -2667,27 +2681,27 @@
         <v>1172268903</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26">
         <v>140263</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26">
         <v>12314664</v>
@@ -2696,27 +2710,27 @@
         <v>520918279</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B27">
         <v>213141</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27">
         <v>16857995</v>
@@ -2725,27 +2739,27 @@
         <v>1014643276</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B28">
         <v>134041</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D28">
         <v>30525564</v>
@@ -2754,27 +2768,27 @@
         <v>1023556273</v>
       </c>
       <c r="F28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B29">
         <v>11109</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29">
         <v>56809157</v>
@@ -2783,27 +2797,27 @@
         <v>709834629</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B30">
         <v>9676</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30">
         <v>13861510</v>
@@ -2812,27 +2826,27 @@
         <v>164398409</v>
       </c>
       <c r="F30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B31">
         <v>1176832</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31">
         <v>52719764</v>
@@ -2841,27 +2855,27 @@
         <v>326454425</v>
       </c>
       <c r="F31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B32">
         <v>11381</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>72782875</v>
@@ -2870,27 +2884,27 @@
         <v>362627321</v>
       </c>
       <c r="F32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B33">
         <v>11771</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33">
         <v>51995329</v>
@@ -2899,27 +2913,27 @@
         <v>728683979</v>
       </c>
       <c r="F33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B34">
         <v>10452361</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34">
         <v>72781173</v>
@@ -2928,27 +2942,27 @@
         <v>103473614</v>
       </c>
       <c r="F34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B35">
         <v>9206</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D35">
         <v>15603678</v>
@@ -2957,27 +2971,27 @@
         <v>604846638</v>
       </c>
       <c r="F35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B36">
         <v>10966186</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36">
         <v>35284066</v>
@@ -2986,27 +3000,27 @@
         <v>291525339</v>
       </c>
       <c r="F36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B37">
         <v>5177</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D37">
         <v>19018329</v>
@@ -3015,27 +3029,27 @@
         <v>527432699</v>
       </c>
       <c r="F37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B38">
         <v>10398928</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D38">
         <v>43483805</v>
@@ -3044,27 +3058,27 @@
         <v>234699326</v>
       </c>
       <c r="F38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B39">
         <v>11479</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D39">
         <v>17068754</v>
@@ -3073,27 +3087,27 @@
         <v>557017133</v>
       </c>
       <c r="F39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B40">
         <v>1197236</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D40">
         <v>7668025</v>
@@ -3102,27 +3116,27 @@
         <v>266604763</v>
       </c>
       <c r="F40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B41">
         <v>8461</v>
       </c>
       <c r="C41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D41">
         <v>11380695</v>
@@ -3131,27 +3145,27 @@
         <v>572126642</v>
       </c>
       <c r="F41" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H41" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B42">
         <v>9652</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <v>53771886</v>
@@ -3160,27 +3174,27 @@
         <v>123663555</v>
       </c>
       <c r="F42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G42" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B43">
         <v>7678</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43">
         <v>65983520</v>
@@ -3189,27 +3203,27 @@
         <v>916822840</v>
       </c>
       <c r="F43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B44">
         <v>1278445</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D44">
         <v>12014362</v>
@@ -3218,27 +3232,27 @@
         <v>61655076</v>
       </c>
       <c r="F44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B45">
         <v>6315</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D45">
         <v>51983549</v>
@@ -3247,27 +3261,27 @@
         <v>390942897</v>
       </c>
       <c r="F45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I45" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B46">
         <v>12181027</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D46">
         <v>15394529</v>
@@ -3276,27 +3290,27 @@
         <v>234645154</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B47">
         <v>288717</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D47">
         <v>32906888</v>
@@ -3305,27 +3319,27 @@
         <v>265705266</v>
       </c>
       <c r="F47" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G47" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I47" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B48">
         <v>1310756</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D48">
         <v>27654404</v>
@@ -3334,27 +3348,27 @@
         <v>92927257</v>
       </c>
       <c r="F48" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G48" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I48" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B49">
         <v>8588</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D49">
         <v>45798730</v>
@@ -3363,27 +3377,27 @@
         <v>328581662</v>
       </c>
       <c r="F49" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I49" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B50">
         <v>7047</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D50">
         <v>13806359</v>
@@ -3392,27 +3406,27 @@
         <v>109922191</v>
       </c>
       <c r="F50" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G50" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H50" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I50" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B51">
         <v>113692</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D51">
         <v>24708480</v>
@@ -3421,27 +3435,27 @@
         <v>135645734</v>
       </c>
       <c r="F51" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G51" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H51" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I51" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B52">
         <v>5820</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52">
         <v>19224834</v>
@@ -3450,27 +3464,27 @@
         <v>309107435</v>
       </c>
       <c r="F52" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G52" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H52" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I52" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B53">
         <v>10607</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D53">
         <v>36223074</v>
@@ -3479,27 +3493,27 @@
         <v>182425575</v>
       </c>
       <c r="F53" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G53" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H53" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I53" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B54">
         <v>119577</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D54">
         <v>30372097</v>
@@ -3508,27 +3522,27 @@
         <v>184079266</v>
       </c>
       <c r="F54" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G54" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H54" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I54" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B55">
         <v>5082</v>
       </c>
       <c r="C55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D55">
         <v>92643555</v>
@@ -3537,27 +3551,27 @@
         <v>193258482</v>
       </c>
       <c r="F55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G55" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H55" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B56">
         <v>5311</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56">
         <v>21745378</v>
@@ -3566,27 +3580,27 @@
         <v>162230243</v>
       </c>
       <c r="F56" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G56" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I56" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B57">
         <v>154153</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57">
         <v>18924191</v>
@@ -3595,27 +3609,27 @@
         <v>663646349</v>
       </c>
       <c r="F57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H57" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I57" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B58">
         <v>116071</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D58">
         <v>28667953</v>
@@ -3624,27 +3638,27 @@
         <v>189672126</v>
       </c>
       <c r="F58" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G58" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H58" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B59">
         <v>12259403</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D59">
         <v>14602804</v>
@@ -3653,27 +3667,27 @@
         <v>632442064</v>
       </c>
       <c r="F59" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H59" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I59" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B60">
         <v>7960</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D60">
         <v>53425095</v>
@@ -3682,27 +3696,27 @@
         <v>259808911</v>
       </c>
       <c r="F60" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G60" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H60" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B61">
         <v>212418</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D61">
         <v>8300750</v>
@@ -3711,27 +3725,27 @@
         <v>54376912</v>
       </c>
       <c r="F61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G61" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H61" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B62">
         <v>6512</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62">
         <v>39821657</v>
@@ -3740,27 +3754,27 @@
         <v>190395201</v>
       </c>
       <c r="F62" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G62" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H62" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I62" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B63">
         <v>11789660</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D63">
         <v>25331571</v>
@@ -3769,27 +3783,27 @@
         <v>129289231</v>
       </c>
       <c r="F63" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G63" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H63" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I63" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B64">
         <v>5160</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D64">
         <v>42346184</v>
@@ -3798,27 +3812,27 @@
         <v>285929106</v>
       </c>
       <c r="F64" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G64" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H64" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B65">
         <v>7545</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D65">
         <v>54845395</v>
@@ -3827,27 +3841,27 @@
         <v>197299408</v>
       </c>
       <c r="F65" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G65" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H65" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I65" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B66">
         <v>11217309</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D66">
         <v>45119322</v>
@@ -3856,27 +3870,27 @@
         <v>102832771</v>
       </c>
       <c r="F66" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G66" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H66" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I66" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B67">
         <v>154417</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D67">
         <v>7322460</v>
@@ -3885,27 +3899,27 @@
         <v>144917230</v>
       </c>
       <c r="F67" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G67" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H67" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I67" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B68">
         <v>5673</v>
       </c>
       <c r="C68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68">
         <v>49585704</v>
@@ -3914,27 +3928,27 @@
         <v>102291173</v>
       </c>
       <c r="F68" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G68" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H68" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I68" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B69">
         <v>1210709</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D69">
         <v>22663600</v>
@@ -3943,27 +3957,27 @@
         <v>93869121</v>
       </c>
       <c r="F69" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G69" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H69" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I69" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B70">
         <v>6429</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D70">
         <v>35789424</v>
@@ -3972,27 +3986,27 @@
         <v>411795263</v>
       </c>
       <c r="F70" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G70" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H70" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I70" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B71">
         <v>8833</v>
       </c>
       <c r="C71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D71">
         <v>33953303</v>
@@ -4001,27 +4015,27 @@
         <v>94609827</v>
       </c>
       <c r="F71" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G71" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H71" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I71" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B72">
         <v>6240</v>
       </c>
       <c r="C72" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D72">
         <v>56866227</v>
@@ -4030,27 +4044,27 @@
         <v>209769650</v>
       </c>
       <c r="F72" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G72" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H72" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I72" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B73">
         <v>11085243</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73">
         <v>6295558</v>
@@ -4059,27 +4073,27 @@
         <v>36728266</v>
       </c>
       <c r="F73" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G73" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H73" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I73" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B74">
         <v>4920</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D74">
         <v>24269712</v>
@@ -4088,27 +4102,27 @@
         <v>154843973</v>
       </c>
       <c r="F74" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G74" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H74" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I74" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B75">
         <v>7363</v>
       </c>
       <c r="C75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D75">
         <v>20237276</v>
@@ -4117,27 +4131,27 @@
         <v>40301046</v>
       </c>
       <c r="F75" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G75" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H75" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I75" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B76">
         <v>12101</v>
       </c>
       <c r="C76" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D76">
         <v>54384710</v>
@@ -4146,27 +4160,27 @@
         <v>38555826</v>
       </c>
       <c r="F76" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G76" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H76" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I76" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B77">
         <v>97229</v>
       </c>
       <c r="C77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D77">
         <v>16590400</v>
@@ -4175,27 +4189,27 @@
         <v>94598851</v>
       </c>
       <c r="F77" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G77" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H77" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I77" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B78">
         <v>4785</v>
       </c>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D78">
         <v>15959471</v>
@@ -4204,27 +4218,27 @@
         <v>111492774</v>
       </c>
       <c r="F78" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G78" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H78" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I78" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B79">
         <v>12232827</v>
       </c>
       <c r="C79" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D79">
         <v>11080413</v>
@@ -4233,27 +4247,27 @@
         <v>35606893</v>
       </c>
       <c r="F79" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G79" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H79" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I79" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B80">
         <v>10607072</v>
       </c>
       <c r="C80" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D80">
         <v>37905475</v>
@@ -4262,27 +4276,27 @@
         <v>119678986</v>
       </c>
       <c r="F80" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G80" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H80" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I80" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B81">
         <v>11569</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D81">
         <v>16216819</v>
@@ -4291,27 +4305,27 @@
         <v>166663905</v>
       </c>
       <c r="F81" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G81" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H81" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I81" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B82">
         <v>208787</v>
       </c>
       <c r="C82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D82">
         <v>63942507</v>
@@ -4320,27 +4334,27 @@
         <v>232276279</v>
       </c>
       <c r="F82" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G82" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H82" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I82" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B83">
         <v>5462</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D83">
         <v>12303838</v>
@@ -4349,27 +4363,27 @@
         <v>82044066</v>
       </c>
       <c r="F83" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G83" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H83" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I83" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B84">
         <v>7731</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D84">
         <v>31601378</v>
@@ -4378,27 +4392,27 @@
         <v>145762246</v>
       </c>
       <c r="F84" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G84" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H84" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I84" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B85">
         <v>1183129</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D85">
         <v>39735910</v>
@@ -4407,27 +4421,27 @@
         <v>135932554</v>
       </c>
       <c r="F85" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G85" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H85" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I85" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B86">
         <v>10263540</v>
       </c>
       <c r="C86" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D86">
         <v>8483985</v>
@@ -4436,27 +4450,27 @@
         <v>34009368</v>
       </c>
       <c r="F86" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G86" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H86" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I86" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B87">
         <v>200479</v>
       </c>
       <c r="C87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D87">
         <v>47780366</v>
@@ -4465,27 +4479,27 @@
         <v>192031426</v>
       </c>
       <c r="F87" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G87" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H87" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I87" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B88">
         <v>187076</v>
       </c>
       <c r="C88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D88">
         <v>30042120</v>
@@ -4494,27 +4508,27 @@
         <v>72058041</v>
       </c>
       <c r="F88" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G88" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H88" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I88" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B89">
         <v>12082013</v>
       </c>
       <c r="C89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D89">
         <v>19153098</v>
@@ -4523,27 +4537,27 @@
         <v>373365243</v>
       </c>
       <c r="F89" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G89" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H89" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I89" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B90">
         <v>7267</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D90">
         <v>19600157</v>
@@ -4552,27 +4566,27 @@
         <v>232016909</v>
       </c>
       <c r="F90" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G90" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H90" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I90" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B91">
         <v>1115820</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D91">
         <v>35593256</v>
@@ -4581,27 +4595,27 @@
         <v>62408589</v>
       </c>
       <c r="F91" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G91" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H91" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I91" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B92">
         <v>4852</v>
       </c>
       <c r="C92" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D92">
         <v>44023095</v>
@@ -4610,27 +4624,27 @@
         <v>241140680</v>
       </c>
       <c r="F92" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G92" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H92" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I92" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B93">
         <v>1029694</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D93">
         <v>28080510</v>
@@ -4639,27 +4653,27 @@
         <v>81447677</v>
       </c>
       <c r="F93" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G93" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H93" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I93" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B94">
         <v>12052257</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D94">
         <v>14352335</v>
@@ -4668,27 +4682,27 @@
         <v>179176753</v>
       </c>
       <c r="F94" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G94" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H94" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I94" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B95">
         <v>1194361</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D95">
         <v>6877897</v>
@@ -4697,27 +4711,27 @@
         <v>78324421</v>
       </c>
       <c r="F95" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G95" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H95" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I95" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B96">
         <v>8058</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96">
         <v>10913430</v>
@@ -4726,27 +4740,27 @@
         <v>162940953</v>
       </c>
       <c r="F96" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G96" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H96" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I96" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B97">
         <v>10328082</v>
       </c>
       <c r="C97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D97">
         <v>37754906</v>
@@ -4755,27 +4769,27 @@
         <v>99052972</v>
       </c>
       <c r="F97" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G97" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H97" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I97" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B98">
         <v>10063486</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D98">
         <v>13213808</v>
@@ -4784,27 +4798,27 @@
         <v>30083247</v>
       </c>
       <c r="F98" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G98" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H98" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I98" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B99">
         <v>10261931</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D99">
         <v>54183898</v>
@@ -4813,27 +4827,27 @@
         <v>17092288</v>
       </c>
       <c r="F99" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G99" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H99" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I99" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B100">
         <v>10485</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D100">
         <v>12593214</v>
@@ -4842,27 +4856,27 @@
         <v>73721985</v>
       </c>
       <c r="F100" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G100" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H100" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I100" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B101">
         <v>7220</v>
       </c>
       <c r="C101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D101">
         <v>22362074</v>
@@ -4871,16 +4885,16 @@
         <v>195479370</v>
       </c>
       <c r="F101" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G101" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H101" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I101" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/qq_market_analysis/qq_market.xlsx
+++ b/qq_market_analysis/qq_market.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26840" yWindow="500" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="market_2017111721241510925046" sheetId="1" r:id="rId1"/>
+    <sheet name="统计" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="559">
   <si>
     <t>appName</t>
   </si>
@@ -59,6 +60,9 @@
     <t>minSdkVersion</t>
   </si>
   <si>
+    <t>targetSdkVersion</t>
+  </si>
+  <si>
     <t>QQ</t>
   </si>
   <si>
@@ -77,6 +81,9 @@
     <t>QQ_6633.apk</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>微信</t>
   </si>
   <si>
@@ -482,7 +489,7 @@
     <t>6.4.4</t>
   </si>
   <si>
-    <t>今日头条（新闻阅读）_213141.apk</t>
+    <t>今日头条_新闻阅读）_213141.apk</t>
   </si>
   <si>
     <t>WPS Office</t>
@@ -497,7 +504,7 @@
     <t>10.6.2</t>
   </si>
   <si>
-    <t>WPS Office_134041.apk</t>
+    <t>WPS_Office_134041.apk</t>
   </si>
   <si>
     <t>美团-团购美食电影酒店优惠</t>
@@ -704,7 +711,7 @@
     <t>6.7.6</t>
   </si>
   <si>
-    <t>QQ同步助手 换机必备通讯录软件照片一键安全备份_8461.apk</t>
+    <t>QQ同步助手_换机必备通讯录软件照片一键安全备份_8461.apk</t>
   </si>
   <si>
     <t>YY</t>
@@ -731,7 +738,7 @@
     <t>8.2.0.2141</t>
   </si>
   <si>
-    <t>高德地图（快捷导航版）_7678.apk</t>
+    <t>高德地图_快捷导航版）_7678.apk</t>
   </si>
   <si>
     <t>365日历万年历农历</t>
@@ -911,7 +918,7 @@
     <t>6.8.8</t>
   </si>
   <si>
-    <t>驾考宝典-驾照考试|驾校理论_5082.apk</t>
+    <t>驾考宝典-驾照考试_驾校理论_5082.apk</t>
   </si>
   <si>
     <t>阿里星球</t>
@@ -1016,7 +1023,7 @@
     <t>7.16.2</t>
   </si>
   <si>
-    <t>58同城 -租房招聘兼职二手车_6512.apk</t>
+    <t>58同城-租房招聘兼职二手车_6512.apk</t>
   </si>
   <si>
     <t>多玩我的世界盒子</t>
@@ -1376,7 +1383,7 @@
     <t>5.1.5</t>
   </si>
   <si>
-    <t>一键Root大师(加强版)_10263540.apk</t>
+    <t>一键Root大师_加强版__10263540.apk</t>
   </si>
   <si>
     <t>芒果TV</t>
@@ -1436,7 +1443,7 @@
     <t>29.1</t>
   </si>
   <si>
-    <t>网易新闻（官方）_7267.apk</t>
+    <t>网易新闻_官方）_7267.apk</t>
   </si>
   <si>
     <t>派派</t>
@@ -1496,7 +1503,7 @@
     <t>2.1.2</t>
   </si>
   <si>
-    <t>微桌面（智能语音主题壁纸美化锁屏）_12052257.apk</t>
+    <t>微桌面_智能语音主题壁纸美化锁屏）_12052257.apk</t>
   </si>
   <si>
     <t>WiFi信号增强器</t>
@@ -1604,7 +1611,100 @@
     <t>土豆视频_7220.apk</t>
   </si>
   <si>
-    <t>targetSdkVersion</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>Android version</t>
+  </si>
+  <si>
+    <t>2.1.x</t>
+  </si>
+  <si>
+    <t>2.2.x</t>
+  </si>
+  <si>
+    <t>2.3.3-2.3.4</t>
+  </si>
+  <si>
+    <t>2.3.0-2.3.2</t>
+  </si>
+  <si>
+    <t>3.0.x</t>
+  </si>
+  <si>
+    <t>3.1.x</t>
+  </si>
+  <si>
+    <t>4.0.0-4.0.2</t>
+  </si>
+  <si>
+    <t>4.0.3-4.0.4</t>
+  </si>
+  <si>
+    <t>4.1-4.1.1</t>
+  </si>
+  <si>
+    <t>4.2-4.2.2</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1728,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1636,12 +1736,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1654,6 +1776,1043 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>minSdKVerson</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>分布图</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>统计!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>统计!$E$4:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>统计!$F$4:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-450063264"/>
+        <c:axId val="-450060944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-450063264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-450060944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-450060944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-450063264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1943,8 +3102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="G1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1994,18 +3153,18 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>525</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>6633</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>46189354</v>
@@ -2014,27 +3173,33 @@
         <v>6534975040</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>10910</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>51815515</v>
@@ -2043,27 +3208,33 @@
         <v>5018983232</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>528</v>
+      </c>
+      <c r="K3" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>11384</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>27085393</v>
@@ -2072,27 +3243,33 @@
         <v>1709921919</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>530</v>
+      </c>
+      <c r="K4" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>5284</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>17441148</v>
@@ -2101,27 +3278,33 @@
         <v>2429014871</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>531</v>
+      </c>
+      <c r="K5" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>6259</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>34892365</v>
@@ -2130,27 +3313,33 @@
         <v>1434118109</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>530</v>
+      </c>
+      <c r="K6" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>6866</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>23257755</v>
@@ -2159,27 +3348,33 @@
         <v>1042097240</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K7" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>5613</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>20702475</v>
@@ -2188,27 +3383,33 @@
         <v>1472639068</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>530</v>
+      </c>
+      <c r="K8" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>9959</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>30050433</v>
@@ -2217,27 +3418,33 @@
         <v>1435076867</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>530</v>
+      </c>
+      <c r="K9" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>3040</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>41352888</v>
@@ -2246,27 +3453,33 @@
         <v>2469524531</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>532</v>
+      </c>
+      <c r="K10" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>7193</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11">
         <v>73733276</v>
@@ -2275,27 +3488,33 @@
         <v>374117616</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>530</v>
+      </c>
+      <c r="K11" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>5080</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>79184208</v>
@@ -2304,27 +3523,33 @@
         <v>1575259574</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>530</v>
+      </c>
+      <c r="K12" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>2608</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <v>37812496</v>
@@ -2333,27 +3558,33 @@
         <v>857055756</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>9685</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>46964433</v>
@@ -2362,27 +3593,33 @@
         <v>1801554738</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="J14" t="s">
+        <v>530</v>
+      </c>
+      <c r="K14" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B15">
         <v>10555</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D15">
         <v>16620504</v>
@@ -2391,27 +3628,33 @@
         <v>278477579</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="J15" t="s">
+        <v>530</v>
+      </c>
+      <c r="K15" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16">
         <v>7720</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16">
         <v>30339193</v>
@@ -2420,27 +3663,33 @@
         <v>1511914230</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="J16" t="s">
+        <v>530</v>
+      </c>
+      <c r="K16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B17">
         <v>10197</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17">
         <v>53445036</v>
@@ -2449,27 +3698,33 @@
         <v>1207364176</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="J17" t="s">
+        <v>534</v>
+      </c>
+      <c r="K17" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B18">
         <v>9926</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>47799553</v>
@@ -2478,27 +3733,33 @@
         <v>1310150176</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="J18" t="s">
+        <v>537</v>
+      </c>
+      <c r="K18" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B19">
         <v>93301</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>10653230</v>
@@ -2507,27 +3768,33 @@
         <v>4478460973</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="J19" t="s">
+        <v>538</v>
+      </c>
+      <c r="K19" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B20">
         <v>1129680</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D20">
         <v>14658549</v>
@@ -2536,27 +3803,33 @@
         <v>240393607</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="J20" t="s">
+        <v>530</v>
+      </c>
+      <c r="K20" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B21">
         <v>10936</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21">
         <v>34864915</v>
@@ -2565,27 +3838,33 @@
         <v>1066533831</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="J21" t="s">
+        <v>530</v>
+      </c>
+      <c r="K21" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B22">
         <v>10108868</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D22">
         <v>23465153</v>
@@ -2594,27 +3873,33 @@
         <v>985755176</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="J22" t="s">
+        <v>530</v>
+      </c>
+      <c r="K22" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B23">
         <v>8382</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23">
         <v>59872266</v>
@@ -2623,27 +3908,33 @@
         <v>516754925</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B24">
         <v>4859</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>55271313</v>
@@ -2652,27 +3943,33 @@
         <v>1325456299</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="J24" t="s">
+        <v>533</v>
+      </c>
+      <c r="K24" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B25">
         <v>9997</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D25">
         <v>48771298</v>
@@ -2681,27 +3978,33 @@
         <v>1172268903</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B26">
         <v>140263</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D26">
         <v>12314664</v>
@@ -2710,27 +4013,33 @@
         <v>520918279</v>
       </c>
       <c r="F26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="J26" t="s">
+        <v>540</v>
+      </c>
+      <c r="K26" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B27">
         <v>213141</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D27">
         <v>16857995</v>
@@ -2739,27 +4048,33 @@
         <v>1014643276</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="J27" t="s">
+        <v>530</v>
+      </c>
+      <c r="K27" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B28">
         <v>134041</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D28">
         <v>30525564</v>
@@ -2768,27 +4083,33 @@
         <v>1023556273</v>
       </c>
       <c r="F28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="J28" t="s">
+        <v>530</v>
+      </c>
+      <c r="K28" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B29">
         <v>11109</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>56809157</v>
@@ -2797,27 +4118,33 @@
         <v>709834629</v>
       </c>
       <c r="F29" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="J29" t="s">
+        <v>534</v>
+      </c>
+      <c r="K29" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B30">
         <v>9676</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D30">
         <v>13861510</v>
@@ -2826,27 +4153,33 @@
         <v>164398409</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="J30" t="s">
+        <v>542</v>
+      </c>
+      <c r="K30" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B31">
         <v>1176832</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D31">
         <v>52719764</v>
@@ -2855,27 +4188,33 @@
         <v>326454425</v>
       </c>
       <c r="F31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="J31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B32">
         <v>11381</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <v>72782875</v>
@@ -2884,27 +4223,33 @@
         <v>362627321</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G32" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H32" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="J32" t="s">
+        <v>530</v>
+      </c>
+      <c r="K32" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B33">
         <v>11771</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D33">
         <v>51995329</v>
@@ -2913,27 +4258,33 @@
         <v>728683979</v>
       </c>
       <c r="F33" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G33" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="J33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B34">
         <v>10452361</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D34">
         <v>72781173</v>
@@ -2942,27 +4293,33 @@
         <v>103473614</v>
       </c>
       <c r="F34" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G34" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H34" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="J34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B35">
         <v>9206</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D35">
         <v>15603678</v>
@@ -2971,27 +4328,33 @@
         <v>604846638</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G35" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I35" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="J35" t="s">
+        <v>530</v>
+      </c>
+      <c r="K35" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B36">
         <v>10966186</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D36">
         <v>35284066</v>
@@ -3000,27 +4363,33 @@
         <v>291525339</v>
       </c>
       <c r="F36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I36" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="J36" t="s">
+        <v>530</v>
+      </c>
+      <c r="K36" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B37">
         <v>5177</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D37">
         <v>19018329</v>
@@ -3029,27 +4398,33 @@
         <v>527432699</v>
       </c>
       <c r="F37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H37" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I37" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="J37" t="s">
+        <v>530</v>
+      </c>
+      <c r="K37" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B38">
         <v>10398928</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D38">
         <v>43483805</v>
@@ -3058,27 +4433,33 @@
         <v>234699326</v>
       </c>
       <c r="F38" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G38" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I38" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B39">
         <v>11479</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D39">
         <v>17068754</v>
@@ -3087,27 +4468,33 @@
         <v>557017133</v>
       </c>
       <c r="F39" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G39" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I39" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="J39" t="s">
+        <v>530</v>
+      </c>
+      <c r="K39" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B40">
         <v>1197236</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D40">
         <v>7668025</v>
@@ -3116,27 +4503,33 @@
         <v>266604763</v>
       </c>
       <c r="F40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I40" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="J40" t="s">
+        <v>530</v>
+      </c>
+      <c r="K40" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B41">
         <v>8461</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D41">
         <v>11380695</v>
@@ -3145,27 +4538,33 @@
         <v>572126642</v>
       </c>
       <c r="F41" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G41" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H41" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I41" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="J41" t="s">
+        <v>527</v>
+      </c>
+      <c r="K41" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B42">
         <v>9652</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D42">
         <v>53771886</v>
@@ -3174,27 +4573,33 @@
         <v>123663555</v>
       </c>
       <c r="F42" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G42" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I42" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="J42" t="s">
+        <v>530</v>
+      </c>
+      <c r="K42" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B43">
         <v>7678</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D43">
         <v>65983520</v>
@@ -3203,27 +4608,33 @@
         <v>916822840</v>
       </c>
       <c r="F43" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G43" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H43" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I43" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+      <c r="J43" t="s">
+        <v>530</v>
+      </c>
+      <c r="K43" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B44">
         <v>1278445</v>
       </c>
       <c r="C44" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D44">
         <v>12014362</v>
@@ -3232,27 +4643,33 @@
         <v>61655076</v>
       </c>
       <c r="F44" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G44" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H44" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I44" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="J44" t="s">
+        <v>540</v>
+      </c>
+      <c r="K44" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B45">
         <v>6315</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D45">
         <v>51983549</v>
@@ -3261,27 +4678,33 @@
         <v>390942897</v>
       </c>
       <c r="F45" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G45" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H45" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I45" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="J45" t="s">
+        <v>534</v>
+      </c>
+      <c r="K45" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B46">
         <v>12181027</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D46">
         <v>15394529</v>
@@ -3290,27 +4713,33 @@
         <v>234645154</v>
       </c>
       <c r="F46" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G46" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H46" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I46" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B47">
         <v>288717</v>
       </c>
       <c r="C47" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D47">
         <v>32906888</v>
@@ -3319,27 +4748,33 @@
         <v>265705266</v>
       </c>
       <c r="F47" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G47" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H47" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I47" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="J47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B48">
         <v>1310756</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D48">
         <v>27654404</v>
@@ -3348,27 +4783,33 @@
         <v>92927257</v>
       </c>
       <c r="F48" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G48" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H48" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I48" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="J48" t="s">
+        <v>527</v>
+      </c>
+      <c r="K48" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B49">
         <v>8588</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D49">
         <v>45798730</v>
@@ -3377,27 +4818,33 @@
         <v>328581662</v>
       </c>
       <c r="F49" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G49" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H49" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I49" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="J49" t="s">
+        <v>530</v>
+      </c>
+      <c r="K49" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B50">
         <v>7047</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D50">
         <v>13806359</v>
@@ -3406,27 +4853,33 @@
         <v>109922191</v>
       </c>
       <c r="F50" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G50" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H50" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I50" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="J50" t="s">
+        <v>530</v>
+      </c>
+      <c r="K50" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B51">
         <v>113692</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51">
         <v>24708480</v>
@@ -3435,27 +4888,33 @@
         <v>135645734</v>
       </c>
       <c r="F51" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G51" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H51" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I51" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B52">
         <v>5820</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D52">
         <v>19224834</v>
@@ -3464,27 +4923,33 @@
         <v>309107435</v>
       </c>
       <c r="F52" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G52" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H52" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I52" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="J52" t="s">
+        <v>530</v>
+      </c>
+      <c r="K52" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B53">
         <v>10607</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D53">
         <v>36223074</v>
@@ -3493,27 +4958,33 @@
         <v>182425575</v>
       </c>
       <c r="F53" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G53" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H53" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I53" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="J53" t="s">
+        <v>530</v>
+      </c>
+      <c r="K53" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B54">
         <v>119577</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D54">
         <v>30372097</v>
@@ -3522,27 +4993,33 @@
         <v>184079266</v>
       </c>
       <c r="F54" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G54" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H54" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I54" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+      <c r="J54" t="s">
+        <v>530</v>
+      </c>
+      <c r="K54" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B55">
         <v>5082</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D55">
         <v>92643555</v>
@@ -3551,27 +5028,33 @@
         <v>193258482</v>
       </c>
       <c r="F55" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G55" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H55" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="J55" t="s">
+        <v>534</v>
+      </c>
+      <c r="K55" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B56">
         <v>5311</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D56">
         <v>21745378</v>
@@ -3580,27 +5063,33 @@
         <v>162230243</v>
       </c>
       <c r="F56" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G56" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H56" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I56" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="J56" t="s">
+        <v>530</v>
+      </c>
+      <c r="K56" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B57">
         <v>154153</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D57">
         <v>18924191</v>
@@ -3609,27 +5098,33 @@
         <v>663646349</v>
       </c>
       <c r="F57" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G57" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H57" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I57" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="J57" t="s">
+        <v>527</v>
+      </c>
+      <c r="K57" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B58">
         <v>116071</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D58">
         <v>28667953</v>
@@ -3638,27 +5133,33 @@
         <v>189672126</v>
       </c>
       <c r="F58" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G58" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H58" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I58" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+      <c r="J58" t="s">
+        <v>530</v>
+      </c>
+      <c r="K58" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B59">
         <v>12259403</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D59">
         <v>14602804</v>
@@ -3667,27 +5168,33 @@
         <v>632442064</v>
       </c>
       <c r="F59" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G59" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H59" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I59" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="J59" t="s">
+        <v>531</v>
+      </c>
+      <c r="K59" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B60">
         <v>7960</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D60">
         <v>53425095</v>
@@ -3696,27 +5203,33 @@
         <v>259808911</v>
       </c>
       <c r="F60" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G60" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H60" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I60" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="J60" t="s">
+        <v>534</v>
+      </c>
+      <c r="K60" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B61">
         <v>212418</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D61">
         <v>8300750</v>
@@ -3725,27 +5238,33 @@
         <v>54376912</v>
       </c>
       <c r="F61" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G61" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H61" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I61" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="J61" t="s">
+        <v>530</v>
+      </c>
+      <c r="K61" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B62">
         <v>6512</v>
       </c>
       <c r="C62" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D62">
         <v>39821657</v>
@@ -3754,27 +5273,33 @@
         <v>190395201</v>
       </c>
       <c r="F62" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G62" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H62" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I62" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+      <c r="J62" t="s">
+        <v>534</v>
+      </c>
+      <c r="K62" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B63">
         <v>11789660</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D63">
         <v>25331571</v>
@@ -3783,27 +5308,33 @@
         <v>129289231</v>
       </c>
       <c r="F63" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G63" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H63" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I63" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+      <c r="J63" t="s">
+        <v>530</v>
+      </c>
+      <c r="K63" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B64">
         <v>5160</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D64">
         <v>42346184</v>
@@ -3812,27 +5343,33 @@
         <v>285929106</v>
       </c>
       <c r="F64" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G64" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H64" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I64" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="J64" t="s">
+        <v>530</v>
+      </c>
+      <c r="K64" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B65">
         <v>7545</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D65">
         <v>54845395</v>
@@ -3841,27 +5378,33 @@
         <v>197299408</v>
       </c>
       <c r="F65" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G65" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H65" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I65" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="J65" t="s">
+        <v>530</v>
+      </c>
+      <c r="K65" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B66">
         <v>11217309</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D66">
         <v>45119322</v>
@@ -3870,27 +5413,33 @@
         <v>102832771</v>
       </c>
       <c r="F66" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G66" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H66" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I66" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+      <c r="J66" t="s">
+        <v>534</v>
+      </c>
+      <c r="K66" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B67">
         <v>154417</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D67">
         <v>7322460</v>
@@ -3899,27 +5448,33 @@
         <v>144917230</v>
       </c>
       <c r="F67" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G67" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H67" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I67" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+      <c r="J67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B68">
         <v>5673</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68">
         <v>49585704</v>
@@ -3928,27 +5483,33 @@
         <v>102291173</v>
       </c>
       <c r="F68" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G68" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H68" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I68" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+      <c r="J68" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B69">
         <v>1210709</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D69">
         <v>22663600</v>
@@ -3957,27 +5518,33 @@
         <v>93869121</v>
       </c>
       <c r="F69" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G69" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H69" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I69" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="J69" t="s">
+        <v>528</v>
+      </c>
+      <c r="K69" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B70">
         <v>6429</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D70">
         <v>35789424</v>
@@ -3986,27 +5553,33 @@
         <v>411795263</v>
       </c>
       <c r="F70" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G70" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H70" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I70" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="J70" t="s">
+        <v>530</v>
+      </c>
+      <c r="K70" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B71">
         <v>8833</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D71">
         <v>33953303</v>
@@ -4015,27 +5588,33 @@
         <v>94609827</v>
       </c>
       <c r="F71" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G71" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H71" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I71" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+      <c r="J71" t="s">
+        <v>530</v>
+      </c>
+      <c r="K71" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B72">
         <v>6240</v>
       </c>
       <c r="C72" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D72">
         <v>56866227</v>
@@ -4044,27 +5623,33 @@
         <v>209769650</v>
       </c>
       <c r="F72" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G72" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H72" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I72" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+      <c r="J72" t="s">
+        <v>534</v>
+      </c>
+      <c r="K72" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B73">
         <v>11085243</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D73">
         <v>6295558</v>
@@ -4073,27 +5658,33 @@
         <v>36728266</v>
       </c>
       <c r="F73" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G73" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H73" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I73" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+      <c r="J73" t="s">
+        <v>538</v>
+      </c>
+      <c r="K73" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B74">
         <v>4920</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D74">
         <v>24269712</v>
@@ -4102,27 +5693,33 @@
         <v>154843973</v>
       </c>
       <c r="F74" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G74" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H74" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I74" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+      <c r="J74" t="s">
+        <v>530</v>
+      </c>
+      <c r="K74" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B75">
         <v>7363</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D75">
         <v>20237276</v>
@@ -4131,27 +5728,33 @@
         <v>40301046</v>
       </c>
       <c r="F75" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G75" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H75" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I75" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+      <c r="J75" t="s">
+        <v>530</v>
+      </c>
+      <c r="K75" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B76">
         <v>12101</v>
       </c>
       <c r="C76" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D76">
         <v>54384710</v>
@@ -4160,27 +5763,33 @@
         <v>38555826</v>
       </c>
       <c r="F76" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G76" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H76" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I76" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+      <c r="J76" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B77">
         <v>97229</v>
       </c>
       <c r="C77" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D77">
         <v>16590400</v>
@@ -4189,27 +5798,33 @@
         <v>94598851</v>
       </c>
       <c r="F77" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G77" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H77" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I77" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+      <c r="J77" t="s">
+        <v>530</v>
+      </c>
+      <c r="K77" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B78">
         <v>4785</v>
       </c>
       <c r="C78" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D78">
         <v>15959471</v>
@@ -4218,27 +5833,33 @@
         <v>111492774</v>
       </c>
       <c r="F78" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G78" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H78" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I78" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="J78" t="s">
+        <v>530</v>
+      </c>
+      <c r="K78" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B79">
         <v>12232827</v>
       </c>
       <c r="C79" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D79">
         <v>11080413</v>
@@ -4247,27 +5868,33 @@
         <v>35606893</v>
       </c>
       <c r="F79" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G79" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H79" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I79" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+      <c r="J79" t="s">
+        <v>538</v>
+      </c>
+      <c r="K79" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B80">
         <v>10607072</v>
       </c>
       <c r="C80" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D80">
         <v>37905475</v>
@@ -4276,27 +5903,33 @@
         <v>119678986</v>
       </c>
       <c r="F80" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G80" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H80" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I80" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="J80" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B81">
         <v>11569</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D81">
         <v>16216819</v>
@@ -4305,27 +5938,33 @@
         <v>166663905</v>
       </c>
       <c r="F81" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G81" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H81" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I81" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+      <c r="J81" t="s">
+        <v>530</v>
+      </c>
+      <c r="K81" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B82">
         <v>208787</v>
       </c>
       <c r="C82" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D82">
         <v>63942507</v>
@@ -4334,27 +5973,33 @@
         <v>232276279</v>
       </c>
       <c r="F82" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G82" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H82" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I82" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+      <c r="J82" t="s">
+        <v>530</v>
+      </c>
+      <c r="K82" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B83">
         <v>5462</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D83">
         <v>12303838</v>
@@ -4363,27 +6008,33 @@
         <v>82044066</v>
       </c>
       <c r="F83" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G83" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H83" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I83" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="J83" t="s">
+        <v>530</v>
+      </c>
+      <c r="K83" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B84">
         <v>7731</v>
       </c>
       <c r="C84" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D84">
         <v>31601378</v>
@@ -4392,27 +6043,33 @@
         <v>145762246</v>
       </c>
       <c r="F84" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G84" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H84" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I84" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+      <c r="J84" t="s">
+        <v>530</v>
+      </c>
+      <c r="K84" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B85">
         <v>1183129</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D85">
         <v>39735910</v>
@@ -4421,27 +6078,33 @@
         <v>135932554</v>
       </c>
       <c r="F85" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G85" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H85" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="I85" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="J85" t="s">
+        <v>534</v>
+      </c>
+      <c r="K85" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B86">
         <v>10263540</v>
       </c>
       <c r="C86" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D86">
         <v>8483985</v>
@@ -4450,27 +6113,33 @@
         <v>34009368</v>
       </c>
       <c r="F86" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G86" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H86" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I86" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+      <c r="J86" t="s">
+        <v>538</v>
+      </c>
+      <c r="K86" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B87">
         <v>200479</v>
       </c>
       <c r="C87" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D87">
         <v>47780366</v>
@@ -4479,27 +6148,33 @@
         <v>192031426</v>
       </c>
       <c r="F87" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G87" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H87" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="I87" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+      <c r="J87" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B88">
         <v>187076</v>
       </c>
       <c r="C88" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D88">
         <v>30042120</v>
@@ -4508,27 +6183,33 @@
         <v>72058041</v>
       </c>
       <c r="F88" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G88" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H88" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="I88" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+      <c r="J88" t="s">
+        <v>534</v>
+      </c>
+      <c r="K88" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B89">
         <v>12082013</v>
       </c>
       <c r="C89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D89">
         <v>19153098</v>
@@ -4537,27 +6218,33 @@
         <v>373365243</v>
       </c>
       <c r="F89" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G89" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H89" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="I89" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+      <c r="J89" t="s">
+        <v>530</v>
+      </c>
+      <c r="K89" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B90">
         <v>7267</v>
       </c>
       <c r="C90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D90">
         <v>19600157</v>
@@ -4566,27 +6253,33 @@
         <v>232016909</v>
       </c>
       <c r="F90" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G90" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H90" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I90" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+      <c r="J90" t="s">
+        <v>530</v>
+      </c>
+      <c r="K90" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B91">
         <v>1115820</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91">
         <v>35593256</v>
@@ -4595,27 +6288,33 @@
         <v>62408589</v>
       </c>
       <c r="F91" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G91" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H91" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I91" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+      <c r="J91" t="s">
+        <v>542</v>
+      </c>
+      <c r="K91" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B92">
         <v>4852</v>
       </c>
       <c r="C92" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D92">
         <v>44023095</v>
@@ -4624,27 +6323,33 @@
         <v>241140680</v>
       </c>
       <c r="F92" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G92" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H92" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="I92" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+      <c r="J92" t="s">
+        <v>534</v>
+      </c>
+      <c r="K92" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B93">
         <v>1029694</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D93">
         <v>28080510</v>
@@ -4653,27 +6358,33 @@
         <v>81447677</v>
       </c>
       <c r="F93" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G93" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H93" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I93" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+      <c r="J93" t="s">
+        <v>530</v>
+      </c>
+      <c r="K93" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B94">
         <v>12052257</v>
       </c>
       <c r="C94" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D94">
         <v>14352335</v>
@@ -4682,27 +6393,33 @@
         <v>179176753</v>
       </c>
       <c r="F94" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G94" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H94" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I94" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+      <c r="J94" t="s">
+        <v>530</v>
+      </c>
+      <c r="K94" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B95">
         <v>1194361</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D95">
         <v>6877897</v>
@@ -4711,27 +6428,33 @@
         <v>78324421</v>
       </c>
       <c r="F95" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G95" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H95" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I95" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+      <c r="J95" t="s">
+        <v>530</v>
+      </c>
+      <c r="K95" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B96">
         <v>8058</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D96">
         <v>10913430</v>
@@ -4740,27 +6463,33 @@
         <v>162940953</v>
       </c>
       <c r="F96" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G96" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H96" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I96" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+      <c r="J96" t="s">
+        <v>530</v>
+      </c>
+      <c r="K96" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B97">
         <v>10328082</v>
       </c>
       <c r="C97" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D97">
         <v>37754906</v>
@@ -4769,27 +6498,33 @@
         <v>99052972</v>
       </c>
       <c r="F97" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G97" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H97" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I97" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+      <c r="J97" t="s">
+        <v>530</v>
+      </c>
+      <c r="K97" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B98">
         <v>10063486</v>
       </c>
       <c r="C98" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D98">
         <v>13213808</v>
@@ -4798,27 +6533,33 @@
         <v>30083247</v>
       </c>
       <c r="F98" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G98" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H98" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="I98" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+      <c r="J98" t="s">
+        <v>540</v>
+      </c>
+      <c r="K98" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B99">
         <v>10261931</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99">
         <v>54183898</v>
@@ -4827,27 +6568,33 @@
         <v>17092288</v>
       </c>
       <c r="F99" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G99" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H99" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="I99" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+      <c r="J99" t="s">
+        <v>537</v>
+      </c>
+      <c r="K99" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B100">
         <v>10485</v>
       </c>
       <c r="C100" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D100">
         <v>12593214</v>
@@ -4856,27 +6603,33 @@
         <v>73721985</v>
       </c>
       <c r="F100" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G100" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H100" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="I100" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+      <c r="J100" t="s">
+        <v>530</v>
+      </c>
+      <c r="K100" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B101">
         <v>7220</v>
       </c>
       <c r="C101" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D101">
         <v>22362074</v>
@@ -4885,19 +6638,1368 @@
         <v>195479370</v>
       </c>
       <c r="F101" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G101" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H101" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I101" t="s">
-        <v>524</v>
+        <v>526</v>
+      </c>
+      <c r="J101" t="s">
+        <v>534</v>
+      </c>
+      <c r="K101" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <f>COUNTIF(B$2:B$101,E4)</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <f>F4/$F$17</f>
+        <v>0.02</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F16" si="0">COUNTIF(B$2:B$101,E5)</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ref="G5:G17" si="1">F5/$F$17</f>
+        <v>0.04</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>511</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B17" s="1">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F17" s="2">
+        <f>SUM(F4:F16)</f>
+        <v>100</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="1">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="1">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="1">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="1">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="1">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="1">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="1">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="1">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="1">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="1">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="1">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="1">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="1">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" s="1">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="1">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" s="1">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>266</v>
+      </c>
+      <c r="B40" s="1">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" s="1">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>281</v>
+      </c>
+      <c r="B42" s="1">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B43" s="1">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>291</v>
+      </c>
+      <c r="B44" s="1">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>301</v>
+      </c>
+      <c r="B45" s="1">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>311</v>
+      </c>
+      <c r="B46" s="1">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>326</v>
+      </c>
+      <c r="B47" s="1">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>336</v>
+      </c>
+      <c r="B48" s="1">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>341</v>
+      </c>
+      <c r="B49" s="1">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>346</v>
+      </c>
+      <c r="B50" s="1">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>370</v>
+      </c>
+      <c r="B51" s="1">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>375</v>
+      </c>
+      <c r="B52" s="1">
+        <v>14</v>
+      </c>
+      <c r="C52" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>391</v>
+      </c>
+      <c r="B53" s="1">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>396</v>
+      </c>
+      <c r="B54" s="1">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>407</v>
+      </c>
+      <c r="B55" s="1">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>412</v>
+      </c>
+      <c r="B56" s="1">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>426</v>
+      </c>
+      <c r="B57" s="1">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>431</v>
+      </c>
+      <c r="B58" s="1">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>436</v>
+      </c>
+      <c r="B59" s="1">
+        <v>14</v>
+      </c>
+      <c r="C59" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>441</v>
+      </c>
+      <c r="B60" s="1">
+        <v>14</v>
+      </c>
+      <c r="C60" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>466</v>
+      </c>
+      <c r="B61" s="1">
+        <v>14</v>
+      </c>
+      <c r="C61" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>471</v>
+      </c>
+      <c r="B62" s="1">
+        <v>14</v>
+      </c>
+      <c r="C62" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>486</v>
+      </c>
+      <c r="B63" s="1">
+        <v>14</v>
+      </c>
+      <c r="C63" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>491</v>
+      </c>
+      <c r="B64" s="1">
+        <v>14</v>
+      </c>
+      <c r="C64" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>496</v>
+      </c>
+      <c r="B65" s="1">
+        <v>14</v>
+      </c>
+      <c r="C65" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>501</v>
+      </c>
+      <c r="B66" s="1">
+        <v>14</v>
+      </c>
+      <c r="C66" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>506</v>
+      </c>
+      <c r="B67" s="1">
+        <v>14</v>
+      </c>
+      <c r="C67" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>521</v>
+      </c>
+      <c r="B68" s="1">
+        <v>14</v>
+      </c>
+      <c r="C68" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="1">
+        <v>15</v>
+      </c>
+      <c r="C69" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="1">
+        <v>15</v>
+      </c>
+      <c r="C70" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="1">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="1">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" s="1">
+        <v>15</v>
+      </c>
+      <c r="C73" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" s="1">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>188</v>
+      </c>
+      <c r="B75" s="1">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76" s="1">
+        <v>15</v>
+      </c>
+      <c r="C76" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>251</v>
+      </c>
+      <c r="B77" s="1">
+        <v>15</v>
+      </c>
+      <c r="C77" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>256</v>
+      </c>
+      <c r="B78" s="1">
+        <v>15</v>
+      </c>
+      <c r="C78" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>276</v>
+      </c>
+      <c r="B79" s="1">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>356</v>
+      </c>
+      <c r="B80" s="1">
+        <v>15</v>
+      </c>
+      <c r="C80" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>361</v>
+      </c>
+      <c r="B81" s="1">
+        <v>15</v>
+      </c>
+      <c r="C81" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>402</v>
+      </c>
+      <c r="B82" s="1">
+        <v>15</v>
+      </c>
+      <c r="C82" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>422</v>
+      </c>
+      <c r="B83" s="1">
+        <v>15</v>
+      </c>
+      <c r="C83" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>456</v>
+      </c>
+      <c r="B84" s="1">
+        <v>15</v>
+      </c>
+      <c r="C84" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="1">
+        <v>16</v>
+      </c>
+      <c r="C85" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="1">
+        <v>16</v>
+      </c>
+      <c r="C86" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>246</v>
+      </c>
+      <c r="B87" s="1">
+        <v>16</v>
+      </c>
+      <c r="C87" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>296</v>
+      </c>
+      <c r="B88" s="1">
+        <v>16</v>
+      </c>
+      <c r="C88" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>321</v>
+      </c>
+      <c r="B89" s="1">
+        <v>16</v>
+      </c>
+      <c r="C89" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>331</v>
+      </c>
+      <c r="B90" s="1">
+        <v>16</v>
+      </c>
+      <c r="C90" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>351</v>
+      </c>
+      <c r="B91" s="1">
+        <v>16</v>
+      </c>
+      <c r="C91" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>381</v>
+      </c>
+      <c r="B92" s="1">
+        <v>16</v>
+      </c>
+      <c r="C92" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>446</v>
+      </c>
+      <c r="B93" s="1">
+        <v>16</v>
+      </c>
+      <c r="C93" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>461</v>
+      </c>
+      <c r="B94" s="1">
+        <v>16</v>
+      </c>
+      <c r="C94" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>481</v>
+      </c>
+      <c r="B95" s="1">
+        <v>16</v>
+      </c>
+      <c r="C95" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>526</v>
+      </c>
+      <c r="B96" s="1">
+        <v>16</v>
+      </c>
+      <c r="C96" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="1">
+        <v>17</v>
+      </c>
+      <c r="C97" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>366</v>
+      </c>
+      <c r="B98" s="1">
+        <v>17</v>
+      </c>
+      <c r="C98" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="1">
+        <v>18</v>
+      </c>
+      <c r="C99" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>516</v>
+      </c>
+      <c r="B100" s="1">
+        <v>18</v>
+      </c>
+      <c r="C100" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" s="1">
+        <v>19</v>
+      </c>
+      <c r="C101" s="1">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C101">
+    <sortCondition ref="B2:B101"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>